--- a/Financial Services/Shift4 Payments.xlsx
+++ b/Financial Services/Shift4 Payments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245300E-BBD8-D148-A2E7-824A6EF7FC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BCC17D-A041-B44E-ADE8-1EC49750C3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18140" yWindow="500" windowWidth="22780" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1012,6 +1012,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,12 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2230,10 +2230,10 @@
     <v>76.400000000000006</v>
     <v>29.39</v>
     <v>1.8180000000000001</v>
-    <v>2.12</v>
-    <v>3.2500000000000001E-2</v>
-    <v>0.59</v>
-    <v>8.737E-3</v>
+    <v>0.5</v>
+    <v>7.7459999999999994E-3</v>
+    <v>-0.34</v>
+    <v>-5.2270000000000007E-3</v>
     <v>USD</v>
     <v>Shift4 Payments, Inc. is an independent provider of software and payment processing solutions in the United States. The Company’s merchant range in size from small owner-operated local businesses to multinational enterprises conducting commerce throughout the world. It distributes its services through a scaled network of seasoned internal sales and support teams, as well as through its network of software partners. The Company’s software partners are comprised of independent software vendors (ISVs) and value-added resellers (VARs). It offers a single integration to an international end-to-end payment offering, a proprietary gateway and a robust suite of technology solutions to enhance the value of their software and simplify payment acceptance. Its payments platform is a full suite of integrated payment products and services that can be used across multiple channels, geographies and industry verticals, including end-to-end payment processing for a range of payment types; and other.</v>
     <v>2300</v>
@@ -2241,25 +2241,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2202 North Irving Street, ALLENTOWN, PA, 18109 US</v>
-    <v>68.3</v>
+    <v>66.900000000000006</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45068.882585578125</v>
+    <v>45091.958333356248</v>
     <v>0</v>
-    <v>64.97</v>
-    <v>5603150922</v>
+    <v>64.52</v>
+    <v>5411803526</v>
     <v>Shift4 Payments Inc</v>
     <v>Shift4 Payments Inc</v>
-    <v>65.069999999999993</v>
-    <v>55.559800000000003</v>
-    <v>65.23</v>
-    <v>67.349999999999994</v>
-    <v>68.12</v>
+    <v>66</v>
+    <v>55.406500000000001</v>
+    <v>64.55</v>
+    <v>65.05</v>
+    <v>64.709999999999994</v>
     <v>83194520</v>
     <v>FOUR</v>
     <v>Shift4 Payments Inc (XNYS:FOUR)</v>
-    <v>922528</v>
-    <v>1841919</v>
+    <v>1237021</v>
+    <v>977989</v>
     <v>2019</v>
   </rv>
   <rv s="2">
@@ -2424,9 +2424,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2847,10 +2847,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L135" sqref="L135"/>
+      <selection pane="bottomRight" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3410,15 +3410,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>2.8105692827046549</v>
+        <v>2.7145884460272871</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>74.609200026631157</v>
+        <v>72.061298615179766</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>24.936141174899866</v>
+        <v>24.084572879394749</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4782,10 +4782,10 @@
       <c r="F83" s="1">
         <v>2800000</v>
       </c>
-      <c r="M83" s="60" t="s">
+      <c r="M83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="N83" s="61"/>
+      <c r="N83" s="63"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4806,10 +4806,10 @@
       <c r="F84" s="1">
         <v>37300000</v>
       </c>
-      <c r="M84" s="62" t="s">
+      <c r="M84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="N84" s="63"/>
+      <c r="N84" s="65"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5051,10 +5051,10 @@
       <c r="F93" s="1">
         <v>-356900000</v>
       </c>
-      <c r="M93" s="62" t="s">
+      <c r="M93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="N93" s="63"/>
+      <c r="N93" s="65"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5181,10 +5181,10 @@
       <c r="F98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M98" s="62" t="s">
+      <c r="M98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="N98" s="63"/>
+      <c r="N98" s="65"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>0.23954449612724693</v>
+        <v>0.24593121347209637</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="N101" s="40" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5603150922</v>
+        <v>5411803526</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.76045550387275307</v>
+        <v>0.75406878652790366</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="N103" s="41">
         <f>N99+N101</f>
-        <v>7368150922</v>
+        <v>7176803526</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5340,10 +5340,10 @@
       <c r="F104" s="11">
         <v>776500000</v>
       </c>
-      <c r="M104" s="62" t="s">
+      <c r="M104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="N104" s="63"/>
+      <c r="N104" s="65"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>9.50786544529795E-2</v>
+        <v>9.4435135688963251E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5443,7 +5443,7 @@
       <c r="J107" s="43"/>
       <c r="K107" s="46">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>10257602854.960938</v>
+        <v>10352669420.979664</v>
       </c>
       <c r="L107" s="47" t="s">
         <v>148</v>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="K108" s="46">
         <f>K107+K106</f>
-        <v>10958909202.266991</v>
+        <v>11053975768.285717</v>
       </c>
       <c r="L108" s="47" t="s">
         <v>144</v>
@@ -5484,14 +5484,14 @@
       </c>
       <c r="N108" s="51">
         <f>N105</f>
-        <v>9.50786544529795E-2</v>
+        <v>9.4435135688963251E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="64" t="s">
+      <c r="G109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="65"/>
+      <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G110" s="52" t="s">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="H110" s="40">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>8239076958.7501707</v>
+        <v>8322115968.8698511</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="H113" s="40">
         <f>H110+H111-H112</f>
-        <v>7250576958.7501717</v>
+        <v>7333615968.8698502</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="H115" s="55">
         <f>H113/H114</f>
-        <v>50.853132060484533</v>
+        <v>51.435540022197394</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="H116" s="56" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>67.349999999999994</v>
+        <v>65.05</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="H117" s="58">
         <f>H115/H116-1</f>
-        <v>-0.24494235990371882</v>
+        <v>-0.2092922363997326</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
